--- a/Exams/Exam-01/Exam-01-1/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-1/CheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioCesarRoblesUrib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\Exam-01-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F1B61-E8E8-4A33-9FCE-7368A2B1A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3EDEED-880C-4223-A551-2CFEABE06AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>Criterios</t>
   </si>
@@ -152,9 +141,6 @@
     <t>Los campos son solo de Lectura</t>
   </si>
   <si>
-    <t>Accept (Redirect: Index)</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -186,6 +172,15 @@
   </si>
   <si>
     <t>Views: Layouts, Bootstrap,  Redirection y Actions, HTML, CSS, JS</t>
+  </si>
+  <si>
+    <t>Edit (Redirect: Edit)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tiene muchos Warings</t>
   </si>
 </sst>
 </file>
@@ -733,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -772,19 +767,22 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -796,13 +794,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="31"/>
     </row>
@@ -859,7 +857,7 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>6</v>
@@ -883,13 +881,13 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="31"/>
     </row>
@@ -940,7 +938,7 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>6</v>
@@ -1021,7 +1019,7 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>6</v>
@@ -1080,7 +1078,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>6</v>
@@ -1094,10 +1092,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="31"/>
     </row>
@@ -1121,7 +1119,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>6</v>
@@ -1176,13 +1174,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1210,7 +1208,7 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -1253,13 +1251,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C46" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1278,22 +1276,22 @@
         <v>31</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C48" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1329,13 +1327,13 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C53" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="31"/>
     </row>
@@ -1352,7 +1350,7 @@
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>6</v>
@@ -1387,7 +1385,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -1395,13 +1393,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C59" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1418,13 +1416,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C61" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1457,7 +1455,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="7">
         <f>SUM(C2:C63)</f>
-        <v>4.9999999999999982</v>
+        <v>3.9000000000000021</v>
       </c>
       <c r="D64" s="3"/>
     </row>

--- a/Exams/Exam-01/Exam-01-1/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-1/CheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioCesarRoblesUrib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\Exam-01-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F1B61-E8E8-4A33-9FCE-7368A2B1A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16D885-7B29-4195-BC38-D0A4B8A88FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>Criterios</t>
   </si>
@@ -152,9 +141,6 @@
     <t>Los campos son solo de Lectura</t>
   </si>
   <si>
-    <t>Accept (Redirect: Index)</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -186,6 +172,15 @@
   </si>
   <si>
     <t>Views: Layouts, Bootstrap,  Redirection y Actions, HTML, CSS, JS</t>
+  </si>
+  <si>
+    <t>Edit (Redirect: Edit)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>25 Warnings</t>
   </si>
 </sst>
 </file>
@@ -733,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -772,19 +767,22 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -796,13 +794,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="31"/>
     </row>
@@ -859,7 +857,7 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>6</v>
@@ -883,13 +881,13 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="31"/>
     </row>
@@ -940,13 +938,13 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="31"/>
     </row>
@@ -967,10 +965,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="31"/>
     </row>
@@ -1021,7 +1019,7 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>6</v>
@@ -1036,10 +1034,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="31"/>
     </row>
@@ -1080,7 +1078,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>6</v>
@@ -1094,10 +1092,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="31"/>
     </row>
@@ -1121,7 +1119,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>6</v>
@@ -1147,10 +1145,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C36" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="31"/>
     </row>
@@ -1159,10 +1157,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C37" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1176,13 +1174,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1210,7 +1208,7 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -1253,13 +1251,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C46" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1287,13 +1285,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1329,13 +1327,13 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C53" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="31"/>
     </row>
@@ -1352,7 +1350,7 @@
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>6</v>
@@ -1387,7 +1385,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -1395,13 +1393,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C59" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1418,13 +1416,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C61" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1457,7 +1455,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="7">
         <f>SUM(C2:C63)</f>
-        <v>4.9999999999999982</v>
+        <v>3.5000000000000018</v>
       </c>
       <c r="D64" s="3"/>
     </row>
